--- a/test1.xlsx
+++ b/test1.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>efafgAGGGG</t>
+    <t>efafgAGGGG 12345</t>
   </si>
 </sst>
 </file>
@@ -355,6 +355,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
